--- a/monitor_xlsx/20260203.xlsx
+++ b/monitor_xlsx/20260203.xlsx
@@ -541,12 +541,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>4.27%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.92%</t>
+          <t>-0.12%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -567,12 +567,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4945.7$</t>
+          <t>4903.7$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+6.99%</t>
+          <t>+6.08%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -593,12 +593,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31.54</t>
+          <t>31.58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>-0.01%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -619,12 +619,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8134.49</t>
+          <t>7966.33</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+1.70%</t>
+          <t>-2.07%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.26</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>+10.16%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -709,18 +709,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>106.34億</t>
+          <t>106.17億</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15.88億</t>
+          <t>15.84億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>79.39億</t>
+          <t>79.22億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>110.1億</t>
+          <t>109.93億</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -813,28 +813,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-39.87億</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.82億</t>
+          <t>-4.34億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11億</t>
+          <t>-21.68億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-18.39億</t>
+          <t>-18.43億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-367.89億</t>
+          <t>-368.52億</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15.88億</t>
+          <t>15.84億</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>79.39億</t>
+          <t>79.22億</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.82億</t>
+          <t>-4.34億</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.11億</t>
+          <t>-21.68億</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-18.39億</t>
+          <t>-18.43億</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-367.89億</t>
+          <t>-368.52億</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,13 @@
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1159,6 +1166,41 @@
           <t>籌碼評價</t>
         </is>
       </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>買賣券商差</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼集中度5D(%)</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>借券賣出餘額</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>短回補天數</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP20D</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP乖離(%)</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>資料來源</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1184,17 +1226,23 @@
         <v>-414</v>
       </c>
       <c r="G4" t="n">
-        <v>-88291</v>
+        <v>-164720</v>
       </c>
       <c r="I4" t="n">
-        <v>3622</v>
+        <v>1911</v>
       </c>
       <c r="J4" t="n">
         <v>13688</v>
       </c>
+      <c r="K4" t="n">
+        <v>7650</v>
+      </c>
       <c r="L4" t="n">
         <v>36283</v>
       </c>
+      <c r="M4" t="n">
+        <v>-4010833</v>
+      </c>
       <c r="N4" t="n">
         <v>-0.1</v>
       </c>
@@ -1203,6 +1251,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>-6.38</v>
+      </c>
+      <c r="R4" t="n">
+        <v>137857000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="T4" t="n">
+        <v>71.73</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1222,17 +1293,46 @@
         <v>2074</v>
       </c>
       <c r="I5" t="n">
-        <v>-60</v>
+        <v>-210</v>
       </c>
       <c r="J5" t="n">
         <v>8304</v>
       </c>
+      <c r="K5" t="n">
+        <v>10094</v>
+      </c>
       <c r="L5" t="n">
         <v>45162</v>
       </c>
+      <c r="M5" t="n">
+        <v>-27018</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>中性</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1998000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="T5" t="n">
+        <v>114.39</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1260,20 +1360,26 @@
         <v>-920</v>
       </c>
       <c r="G6" t="n">
-        <v>789</v>
+        <v>1481</v>
       </c>
       <c r="H6" t="n">
         <v>-130</v>
       </c>
       <c r="I6" t="n">
-        <v>-134</v>
+        <v>-302</v>
       </c>
       <c r="J6" t="n">
         <v>173</v>
       </c>
+      <c r="K6" t="n">
+        <v>2775</v>
+      </c>
       <c r="L6" t="n">
         <v>13627</v>
       </c>
+      <c r="M6" t="n">
+        <v>-78719</v>
+      </c>
       <c r="N6" t="n">
         <v>-4.96</v>
       </c>
@@ -1282,6 +1388,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>-47</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3543000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="T6" t="n">
+        <v>932.15</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1307,20 +1436,26 @@
         <v>-6149</v>
       </c>
       <c r="G7" t="n">
-        <v>34960</v>
+        <v>2426</v>
       </c>
       <c r="H7" t="n">
         <v>-35051</v>
       </c>
       <c r="I7" t="n">
-        <v>20407</v>
+        <v>19690</v>
       </c>
       <c r="J7" t="n">
         <v>4094</v>
       </c>
+      <c r="K7" t="n">
+        <v>88957</v>
+      </c>
       <c r="L7" t="n">
         <v>396542</v>
       </c>
+      <c r="M7" t="n">
+        <v>-1105448</v>
+      </c>
       <c r="N7" t="n">
         <v>-12.96</v>
       </c>
@@ -1329,6 +1464,29 @@
           <t>偏多</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>-7.31</v>
+      </c>
+      <c r="R7" t="n">
+        <v>175067918</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T7" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-11.19</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1348,32 +1506,61 @@
         <v>3.4</v>
       </c>
       <c r="E8" t="n">
-        <v>11377</v>
+        <v>11407</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>-1110</v>
       </c>
       <c r="G8" t="n">
-        <v>-161</v>
+        <v>138</v>
       </c>
       <c r="H8" t="n">
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="I8" t="n">
-        <v>687</v>
+        <v>-338</v>
       </c>
       <c r="J8" t="n">
         <v>424</v>
       </c>
+      <c r="K8" t="n">
+        <v>6283</v>
+      </c>
       <c r="L8" t="n">
         <v>34689</v>
       </c>
+      <c r="M8" t="n">
+        <v>-648628</v>
+      </c>
       <c r="N8" t="n">
         <v>-1.7</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>偏空</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2189680</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1149.53</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1395,26 +1582,32 @@
         <v>1.98</v>
       </c>
       <c r="E9" t="n">
-        <v>27905</v>
+        <v>30386</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>-2924</v>
       </c>
       <c r="G9" t="n">
-        <v>-7930</v>
+        <v>-17775</v>
       </c>
       <c r="H9" t="n">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I9" t="n">
-        <v>844</v>
+        <v>2890</v>
       </c>
       <c r="J9" t="n">
         <v>394</v>
       </c>
+      <c r="K9" t="n">
+        <v>21879</v>
+      </c>
       <c r="L9" t="n">
         <v>100916</v>
       </c>
+      <c r="M9" t="n">
+        <v>-6482876</v>
+      </c>
       <c r="N9" t="n">
         <v>0.61</v>
       </c>
@@ -1423,6 +1616,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1553680</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1739.86</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1448,20 +1664,26 @@
         <v>-11913</v>
       </c>
       <c r="G10" t="n">
-        <v>-50974</v>
+        <v>-73327</v>
       </c>
       <c r="H10" t="n">
         <v>-1291</v>
       </c>
       <c r="I10" t="n">
-        <v>24176</v>
+        <v>16647</v>
       </c>
       <c r="J10" t="n">
         <v>7049</v>
       </c>
+      <c r="K10" t="n">
+        <v>144774</v>
+      </c>
       <c r="L10" t="n">
         <v>738731</v>
       </c>
+      <c r="M10" t="n">
+        <v>-1110676</v>
+      </c>
       <c r="N10" t="n">
         <v>-14.51</v>
       </c>
@@ -1470,6 +1692,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="R10" t="n">
+        <v>30740000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>115.13</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1495,26 +1740,55 @@
         <v>124</v>
       </c>
       <c r="G11" t="n">
-        <v>738</v>
+        <v>924</v>
       </c>
       <c r="H11" t="n">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="I11" t="n">
-        <v>-518</v>
+        <v>92</v>
       </c>
       <c r="J11" t="n">
         <v>89</v>
       </c>
+      <c r="K11" t="n">
+        <v>2093</v>
+      </c>
       <c r="L11" t="n">
         <v>9970</v>
       </c>
+      <c r="M11" t="n">
+        <v>-89490</v>
+      </c>
       <c r="N11" t="n">
         <v>2.6</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏多</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1817528</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1681.45</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1536,26 +1810,32 @@
         <v>5.73</v>
       </c>
       <c r="E12" t="n">
-        <v>2359</v>
+        <v>2364</v>
       </c>
       <c r="F12" s="7" t="n">
         <v>92</v>
       </c>
       <c r="G12" t="n">
-        <v>-1951</v>
+        <v>-2187</v>
       </c>
       <c r="H12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" t="n">
-        <v>-96</v>
+        <v>-150</v>
       </c>
       <c r="J12" t="n">
         <v>44</v>
       </c>
+      <c r="K12" t="n">
+        <v>5973</v>
+      </c>
       <c r="L12" t="n">
         <v>29668</v>
       </c>
+      <c r="M12" t="n">
+        <v>-19723</v>
+      </c>
       <c r="N12" t="n">
         <v>1.62</v>
       </c>
@@ -1564,6 +1844,29 @@
           <t>主力積極賣出</t>
         </is>
       </c>
+      <c r="P12" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5343503</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3418.66</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1589,20 +1892,26 @@
         <v>-7402</v>
       </c>
       <c r="G13" t="n">
-        <v>782</v>
+        <v>3147</v>
       </c>
       <c r="H13" t="n">
         <v>214</v>
       </c>
       <c r="I13" t="n">
-        <v>348</v>
+        <v>695</v>
       </c>
       <c r="J13" t="n">
         <v>1746</v>
       </c>
+      <c r="K13" t="n">
+        <v>30883</v>
+      </c>
       <c r="L13" t="n">
         <v>143708</v>
       </c>
+      <c r="M13" t="n">
+        <v>-267471</v>
+      </c>
       <c r="N13" t="n">
         <v>0.72</v>
       </c>
@@ -1611,6 +1920,29 @@
           <t>偏多</t>
         </is>
       </c>
+      <c r="P13" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>-6.36</v>
+      </c>
+      <c r="R13" t="n">
+        <v>21769945</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>173.89</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1636,20 +1968,26 @@
         <v>-275</v>
       </c>
       <c r="G14" t="n">
-        <v>3238</v>
+        <v>3270</v>
       </c>
       <c r="H14" t="n">
         <v>133</v>
       </c>
       <c r="I14" t="n">
-        <v>-55</v>
+        <v>-220</v>
       </c>
       <c r="J14" t="n">
         <v>79</v>
       </c>
+      <c r="K14" t="n">
+        <v>4445</v>
+      </c>
       <c r="L14" t="n">
         <v>23499</v>
       </c>
+      <c r="M14" t="n">
+        <v>-19229</v>
+      </c>
       <c r="N14" t="n">
         <v>11.31</v>
       </c>
@@ -1658,6 +1996,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P14" t="n">
+        <v>-23</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1868000</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1465.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1691,9 +2052,15 @@
       <c r="J15" t="n">
         <v>88</v>
       </c>
+      <c r="K15" t="n">
+        <v>-123</v>
+      </c>
       <c r="L15" t="n">
         <v>-1064</v>
       </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -1702,6 +2069,29 @@
           <t>主力積極買進</t>
         </is>
       </c>
+      <c r="P15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2209400</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T15" t="n">
+        <v>771.6900000000001</v>
+      </c>
+      <c r="U15" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1738,9 +2128,15 @@
       <c r="J16" t="n">
         <v>-635</v>
       </c>
+      <c r="K16" t="n">
+        <v>240</v>
+      </c>
       <c r="L16" t="n">
         <v>-2090</v>
       </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
@@ -1749,6 +2145,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="7" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7790640</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>335.61</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-6.89</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1782,9 +2201,15 @@
       <c r="J17" t="n">
         <v>3</v>
       </c>
+      <c r="K17" t="n">
+        <v>-7</v>
+      </c>
       <c r="L17" t="n">
         <v>-470</v>
       </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
@@ -1793,6 +2218,29 @@
           <t>主力積極買進</t>
         </is>
       </c>
+      <c r="P17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2204000</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T17" t="n">
+        <v>139.79</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1829,15 +2277,120 @@
       <c r="J18" t="n">
         <v>-86</v>
       </c>
+      <c r="K18" t="n">
+        <v>310</v>
+      </c>
       <c r="L18" t="n">
         <v>-2651</v>
       </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>主力積極買進</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>-46</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11417993</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T18" t="n">
+        <v>303.31</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>景碩</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>246</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E19" t="n">
+        <v>68948</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-3566</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-5298</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4939</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6010</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2136</v>
+      </c>
+      <c r="K19" t="n">
+        <v>31239</v>
+      </c>
+      <c r="L19" t="n">
+        <v>154026</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-113546</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>-30</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R19" t="n">
+        <v>10991826</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T19" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
